--- a/biology/Histoire de la zoologie et de la botanique/Médaille_John-Burroughs/Médaille_John-Burroughs.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Médaille_John-Burroughs/Médaille_John-Burroughs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_John-Burroughs</t>
+          <t>Médaille_John-Burroughs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille John-Burroughs, nommée d'après l'auteur naturaliste John Burroughs (1837-1921), est décernée chaque année en avril par l'association John Burroughs à l'auteur d'un livre que l'association juge remarquable dans le domaine de l'histoire naturelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_John-Burroughs</t>
+          <t>Médaille_John-Burroughs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1926 - William Beebe, Pheasants of the World
 1927 - Ernest Thompson Seton, Lives of Game Animals
@@ -603,9 +617,9 @@
 2013 - Thor Hanson, Feathers: The Evolution of a Natural Miracle,  (ISBN 978-0465028788)
 2014 - Kathleen Jamie, Sightlines,  (ISBN 978-0956308665)
 2015 - Sherry Simpson, Dominion of Bears,  (ISBN 978-0700619351)
-2016 - Sharman Apt Russell, Diary of a Citizen Scientist,  (ISBN 978-0870717529) [1]
-2017 - Brian Doyle, Martin Marten,  (ISBN 978-1250045201) [2]
-2018 - David George Haskell, The Songs of Trees,  (ISBN 978-0525427520) [3] ; une médaille spéciale John Burroughs a été décernée pour l'ensemble de ses réalisations dans la poésie de la nature à Pattiann Rogers[4]</t>
+2016 - Sharman Apt Russell, Diary of a Citizen Scientist,  (ISBN 978-0870717529) 
+2017 - Brian Doyle, Martin Marten,  (ISBN 978-1250045201) 
+2018 - David George Haskell, The Songs of Trees,  (ISBN 978-0525427520)  ; une médaille spéciale John Burroughs a été décernée pour l'ensemble de ses réalisations dans la poésie de la nature à Pattiann Rogers</t>
         </is>
       </c>
     </row>
